--- a/Protocolo_lector.xlsx
+++ b/Protocolo_lector.xlsx
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
@@ -989,10 +989,10 @@
         <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
